--- a/marts_02.xlsx
+++ b/marts_02.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24AB66-5847-4741-BCB0-96562C2DE490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C4DD95-74D9-49F2-B40B-3FB4C9E3D1BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="13">
         <v>1</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="C18" s="7">
         <f>SUM(C3:C17)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
         <f>SUM(D3:D17)</f>
@@ -873,7 +873,7 @@
       </c>
       <c r="C20" s="6">
         <f>C18*C19/10</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
